--- a/docs/fdf_z_scale.xlsx
+++ b/docs/fdf_z_scale.xlsx
@@ -266,7 +266,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -357,6 +357,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -377,6 +378,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -397,6 +399,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -415,6 +418,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -576,17 +580,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54284805"/>
-        <c:axId val="26325191"/>
+        <c:axId val="28297159"/>
+        <c:axId val="92606239"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54284805"/>
+        <c:axId val="28297159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -608,12 +612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26325191"/>
+        <c:crossAx val="92606239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26325191"/>
+        <c:axId val="92606239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +632,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -650,9 +654,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54284805"/>
+        <c:crossAx val="28297159"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -702,16 +706,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>591120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -719,8 +723,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6779880" y="857880"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9240480" y="819360"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -738,15 +742,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B5:H26"/>
+  <dimension ref="B5:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.6"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,6 +798,10 @@
       <c r="H6" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">35.3832 * (F6^(-1.0655))</f>
+        <v>16.9063418736846</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
@@ -818,6 +827,10 @@
       <c r="H7" s="2" t="n">
         <v>0.1</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">35.3832 * (F7^(-1.0655))</f>
+        <v>0.188586847353683</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
@@ -843,6 +856,10 @@
       <c r="H8" s="2" t="n">
         <v>0.1</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">35.3832 * (F8^(-1.0655))</f>
+        <v>0.219384948578084</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
@@ -868,6 +885,10 @@
       <c r="H9" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">35.3832 * (F9^(-1.0655))</f>
+        <v>3.04296605163418</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
@@ -893,6 +914,10 @@
       <c r="H10" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">35.3832 * (F10^(-1.0655))</f>
+        <v>5.24417227272709</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
@@ -918,6 +943,10 @@
       <c r="H11" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">35.3832 * (F11^(-1.0655))</f>
+        <v>3.04296605163418</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
@@ -943,6 +972,10 @@
       <c r="H12" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">35.3832 * (F12^(-1.0655))</f>
+        <v>3.40448726082387</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
@@ -968,6 +1001,10 @@
       <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">35.3832 * (F13^(-1.0655))</f>
+        <v>1.45395058612403</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
@@ -993,6 +1030,10 @@
       <c r="H14" s="2" t="n">
         <v>0.1</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">35.3832 * (F14^(-1.0655))</f>
+        <v>0.261696013684407</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
@@ -1018,6 +1059,10 @@
       <c r="H15" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">35.3832 * (F15^(-1.0655))</f>
+        <v>1.45395058612403</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
@@ -1043,6 +1088,10 @@
       <c r="H16" s="2" t="n">
         <v>0.1</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">35.3832 * (F16^(-1.0655))</f>
+        <v>0.54770230370244</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
@@ -1068,6 +1117,10 @@
       <c r="H17" s="2" t="n">
         <v>0.05</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">35.3832 * (F17^(-1.0655))</f>
+        <v>0.261696013684407</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
@@ -1093,6 +1146,10 @@
       <c r="H18" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">35.3832 * (F18^(-1.0655))</f>
+        <v>1.97547651357395</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
@@ -1118,6 +1175,10 @@
       <c r="H19" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">35.3832 * (F19^(-1.0655))</f>
+        <v>1.45395058612403</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
@@ -1136,6 +1197,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="0" t="e">
+        <f aca="false">35.3832 * (F20^(-1.0655))</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
@@ -1154,6 +1219,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="0" t="e">
+        <f aca="false">35.3832 * (F21^(-1.0655))</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
@@ -1179,6 +1248,10 @@
       <c r="H22" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">35.3832 * (F22^(-1.0655))</f>
+        <v>2.12616852746394</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
@@ -1204,6 +1277,10 @@
       <c r="H23" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">35.3832 * (F23^(-1.0655))</f>
+        <v>1.09936778092281</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
@@ -1229,6 +1306,10 @@
       <c r="H24" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">35.3832 * (F24^(-1.0655))</f>
+        <v>3.40448726082387</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
@@ -1254,6 +1335,10 @@
       <c r="H25" s="2" t="n">
         <v>0.5</v>
       </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">35.3832 * (F25^(-1.0655))</f>
+        <v>0.0977473137295554</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
@@ -1278,6 +1363,10 @@
       </c>
       <c r="H26" s="2" t="n">
         <v>0.5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">35.3832 * (F26^(-1.0655))</f>
+        <v>0.156516042859951</v>
       </c>
     </row>
   </sheetData>
